--- a/public/format/prices/price_production.xlsx
+++ b/public/format/prices/price_production.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="4290" windowWidth="20055" windowHeight="7950" activeTab="7"/>
+    <workbookView xWindow="-30" yWindow="4290" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Embossed" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="42">
   <si>
     <t>style_code</t>
   </si>
@@ -92,12 +92,6 @@
     <t>1 &amp; 1/2 Inches</t>
   </si>
   <si>
-    <t>1-25inch</t>
-  </si>
-  <si>
-    <t>1-75inch</t>
-  </si>
-  <si>
     <t>embossed</t>
   </si>
   <si>
@@ -144,6 +138,15 @@
   </si>
   <si>
     <t>1 Days</t>
+  </si>
+  <si>
+    <t>0-25inch</t>
+  </si>
+  <si>
+    <t>0-50inch</t>
+  </si>
+  <si>
+    <t>0-75inch</t>
   </si>
 </sst>
 </file>
@@ -594,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
@@ -649,13 +652,13 @@
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>16</v>
@@ -684,11 +687,11 @@
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="12">
@@ -715,11 +718,11 @@
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="12">
@@ -746,11 +749,11 @@
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="12">
@@ -777,11 +780,11 @@
     </row>
     <row r="6" spans="1:11" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="12">
@@ -808,11 +811,11 @@
     </row>
     <row r="7" spans="1:11" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="12">
@@ -839,11 +842,11 @@
     </row>
     <row r="8" spans="1:11" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="12">
@@ -870,11 +873,11 @@
     </row>
     <row r="9" spans="1:11" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="12">
@@ -901,11 +904,11 @@
     </row>
     <row r="10" spans="1:11" ht="22.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="12">
@@ -932,11 +935,11 @@
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="12">
@@ -963,11 +966,11 @@
     </row>
     <row r="12" spans="1:11" ht="22.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12">
@@ -994,11 +997,11 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="12">
@@ -1025,11 +1028,11 @@
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>17</v>
@@ -1058,11 +1061,11 @@
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="12">
@@ -1089,11 +1092,11 @@
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="12">
@@ -1120,11 +1123,11 @@
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="12">
@@ -1151,11 +1154,11 @@
     </row>
     <row r="18" spans="1:11" ht="22.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="12">
@@ -1182,11 +1185,11 @@
     </row>
     <row r="19" spans="1:11" ht="22.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="12">
@@ -1213,11 +1216,11 @@
     </row>
     <row r="20" spans="1:11" ht="22.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="12">
@@ -1244,11 +1247,11 @@
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="12">
@@ -1275,11 +1278,11 @@
     </row>
     <row r="22" spans="1:11" ht="22.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="12">
@@ -1306,11 +1309,11 @@
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="12">
@@ -1337,11 +1340,11 @@
     </row>
     <row r="24" spans="1:11" ht="22.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="12">
@@ -1368,11 +1371,11 @@
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="12">
@@ -1399,11 +1402,11 @@
     </row>
     <row r="26" spans="1:11" ht="22.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>20</v>
@@ -1432,11 +1435,11 @@
     </row>
     <row r="27" spans="1:11" ht="22.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="12">
@@ -1463,11 +1466,11 @@
     </row>
     <row r="28" spans="1:11" ht="22.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="12">
@@ -1494,11 +1497,11 @@
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="12">
@@ -1525,11 +1528,11 @@
     </row>
     <row r="30" spans="1:11" ht="22.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="12">
@@ -1556,11 +1559,11 @@
     </row>
     <row r="31" spans="1:11" ht="22.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="12">
@@ -1587,11 +1590,11 @@
     </row>
     <row r="32" spans="1:11" ht="22.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="12">
@@ -1618,11 +1621,11 @@
     </row>
     <row r="33" spans="1:11" ht="22.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="12">
@@ -1649,11 +1652,11 @@
     </row>
     <row r="34" spans="1:11" ht="22.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="12">
@@ -1680,11 +1683,11 @@
     </row>
     <row r="35" spans="1:11" ht="22.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="12">
@@ -1711,11 +1714,11 @@
     </row>
     <row r="36" spans="1:11" ht="22.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="12">
@@ -1742,11 +1745,11 @@
     </row>
     <row r="37" spans="1:11" ht="22.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="12">
@@ -1773,7 +1776,7 @@
     </row>
     <row r="38" spans="1:11" ht="22.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
@@ -1806,7 +1809,7 @@
     </row>
     <row r="39" spans="1:11" ht="22.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
@@ -1837,7 +1840,7 @@
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
@@ -1868,7 +1871,7 @@
     </row>
     <row r="41" spans="1:11" ht="22.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
@@ -1899,7 +1902,7 @@
     </row>
     <row r="42" spans="1:11" ht="22.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
@@ -1930,7 +1933,7 @@
     </row>
     <row r="43" spans="1:11" ht="22.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
@@ -1961,7 +1964,7 @@
     </row>
     <row r="44" spans="1:11" ht="22.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
@@ -1992,7 +1995,7 @@
     </row>
     <row r="45" spans="1:11" ht="22.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
@@ -2023,7 +2026,7 @@
     </row>
     <row r="46" spans="1:11" ht="22.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
@@ -2054,7 +2057,7 @@
     </row>
     <row r="47" spans="1:11" ht="22.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
@@ -2085,7 +2088,7 @@
     </row>
     <row r="48" spans="1:11" ht="22.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
@@ -2116,7 +2119,7 @@
     </row>
     <row r="49" spans="1:11" ht="22.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
@@ -2147,7 +2150,7 @@
     </row>
     <row r="50" spans="1:11" ht="22.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
@@ -2180,7 +2183,7 @@
     </row>
     <row r="51" spans="1:11" ht="22.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
@@ -2211,7 +2214,7 @@
     </row>
     <row r="52" spans="1:11" ht="22.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
@@ -2242,7 +2245,7 @@
     </row>
     <row r="53" spans="1:11" ht="22.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
@@ -2273,7 +2276,7 @@
     </row>
     <row r="54" spans="1:11" ht="22.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
@@ -2304,7 +2307,7 @@
     </row>
     <row r="55" spans="1:11" ht="22.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
@@ -2335,7 +2338,7 @@
     </row>
     <row r="56" spans="1:11" ht="22.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
@@ -2366,7 +2369,7 @@
     </row>
     <row r="57" spans="1:11" ht="22.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
@@ -2397,7 +2400,7 @@
     </row>
     <row r="58" spans="1:11" ht="22.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
@@ -2428,7 +2431,7 @@
     </row>
     <row r="59" spans="1:11" ht="22.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
@@ -2459,7 +2462,7 @@
     </row>
     <row r="60" spans="1:11" ht="22.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
@@ -2490,7 +2493,7 @@
     </row>
     <row r="61" spans="1:11" ht="22.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
@@ -2521,7 +2524,7 @@
     </row>
     <row r="62" spans="1:11" ht="22.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
@@ -2554,7 +2557,7 @@
     </row>
     <row r="63" spans="1:11" ht="22.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
@@ -2585,7 +2588,7 @@
     </row>
     <row r="64" spans="1:11" ht="22.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
@@ -2616,7 +2619,7 @@
     </row>
     <row r="65" spans="1:11" ht="22.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
@@ -2647,7 +2650,7 @@
     </row>
     <row r="66" spans="1:11" ht="22.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
@@ -2678,7 +2681,7 @@
     </row>
     <row r="67" spans="1:11" ht="22.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
@@ -2709,7 +2712,7 @@
     </row>
     <row r="68" spans="1:11" ht="22.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
@@ -2740,7 +2743,7 @@
     </row>
     <row r="69" spans="1:11" ht="22.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
@@ -2771,7 +2774,7 @@
     </row>
     <row r="70" spans="1:11" ht="22.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
@@ -2802,7 +2805,7 @@
     </row>
     <row r="71" spans="1:11" ht="22.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
@@ -2833,7 +2836,7 @@
     </row>
     <row r="72" spans="1:11" ht="22.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
@@ -2864,7 +2867,7 @@
     </row>
     <row r="73" spans="1:11" ht="22.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
@@ -2963,7 +2966,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>16</v>
@@ -2996,7 +2999,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="12">
@@ -3027,7 +3030,7 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="12">
@@ -3058,7 +3061,7 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="12">
@@ -3089,7 +3092,7 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="12">
@@ -3120,7 +3123,7 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="12">
@@ -3151,7 +3154,7 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="12">
@@ -3182,7 +3185,7 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="12">
@@ -3213,7 +3216,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="12">
@@ -3244,7 +3247,7 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="12">
@@ -3275,7 +3278,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12">
@@ -3306,7 +3309,7 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="12">
@@ -3337,7 +3340,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>17</v>
@@ -3370,7 +3373,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="12">
@@ -3401,7 +3404,7 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="12">
@@ -3432,7 +3435,7 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="12">
@@ -3463,7 +3466,7 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="12">
@@ -3494,7 +3497,7 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="12">
@@ -3525,7 +3528,7 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="12">
@@ -3556,7 +3559,7 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="12">
@@ -3587,7 +3590,7 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="12">
@@ -3618,7 +3621,7 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="12">
@@ -3649,7 +3652,7 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="12">
@@ -3680,7 +3683,7 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="12">
@@ -3711,7 +3714,7 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>20</v>
@@ -3744,7 +3747,7 @@
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="12">
@@ -3775,7 +3778,7 @@
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="12">
@@ -3806,7 +3809,7 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="12">
@@ -3837,7 +3840,7 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="12">
@@ -3868,7 +3871,7 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="12">
@@ -3899,7 +3902,7 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="12">
@@ -3930,7 +3933,7 @@
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="12">
@@ -3961,7 +3964,7 @@
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="12">
@@ -3992,7 +3995,7 @@
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="12">
@@ -4023,7 +4026,7 @@
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="12">
@@ -4054,7 +4057,7 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="12">
@@ -5214,7 +5217,7 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
@@ -5246,7 +5249,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>10</v>
@@ -5269,13 +5272,13 @@
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>16</v>
@@ -5307,11 +5310,11 @@
     </row>
     <row r="3" spans="1:12" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="12">
@@ -5341,11 +5344,11 @@
     </row>
     <row r="4" spans="1:12" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="12">
@@ -5375,11 +5378,11 @@
     </row>
     <row r="5" spans="1:12" ht="22.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="12">
@@ -5409,11 +5412,11 @@
     </row>
     <row r="6" spans="1:12" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="12">
@@ -5443,11 +5446,11 @@
     </row>
     <row r="7" spans="1:12" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="12">
@@ -5477,11 +5480,11 @@
     </row>
     <row r="8" spans="1:12" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="12">
@@ -5511,11 +5514,11 @@
     </row>
     <row r="9" spans="1:12" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="12">
@@ -5545,11 +5548,11 @@
     </row>
     <row r="10" spans="1:12" ht="22.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="12">
@@ -5579,11 +5582,11 @@
     </row>
     <row r="11" spans="1:12" ht="22.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="12">
@@ -5613,11 +5616,11 @@
     </row>
     <row r="12" spans="1:12" ht="22.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12">
@@ -5647,11 +5650,11 @@
     </row>
     <row r="13" spans="1:12" ht="22.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="12">
@@ -5681,11 +5684,11 @@
     </row>
     <row r="14" spans="1:12" ht="22.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>17</v>
@@ -5717,11 +5720,11 @@
     </row>
     <row r="15" spans="1:12" ht="22.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="12">
@@ -5751,11 +5754,11 @@
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="12">
@@ -5785,11 +5788,11 @@
     </row>
     <row r="17" spans="1:12" ht="22.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="12">
@@ -5819,11 +5822,11 @@
     </row>
     <row r="18" spans="1:12" ht="22.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="12">
@@ -5853,11 +5856,11 @@
     </row>
     <row r="19" spans="1:12" ht="22.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="12">
@@ -5887,11 +5890,11 @@
     </row>
     <row r="20" spans="1:12" ht="22.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="12">
@@ -5921,11 +5924,11 @@
     </row>
     <row r="21" spans="1:12" ht="22.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="12">
@@ -5955,11 +5958,11 @@
     </row>
     <row r="22" spans="1:12" ht="22.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="12">
@@ -5989,11 +5992,11 @@
     </row>
     <row r="23" spans="1:12" ht="22.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="12">
@@ -6023,11 +6026,11 @@
     </row>
     <row r="24" spans="1:12" ht="22.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="12">
@@ -6057,11 +6060,11 @@
     </row>
     <row r="25" spans="1:12" ht="22.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="12">
@@ -6091,11 +6094,11 @@
     </row>
     <row r="26" spans="1:12" ht="22.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>20</v>
@@ -6127,11 +6130,11 @@
     </row>
     <row r="27" spans="1:12" ht="22.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="12">
@@ -6161,11 +6164,11 @@
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="12">
@@ -6195,11 +6198,11 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="12">
@@ -6229,11 +6232,11 @@
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="12">
@@ -6263,11 +6266,11 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="12">
@@ -6297,11 +6300,11 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="12">
@@ -6331,11 +6334,11 @@
     </row>
     <row r="33" spans="1:12" ht="22.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="12">
@@ -6365,11 +6368,11 @@
     </row>
     <row r="34" spans="1:12" ht="22.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="12">
@@ -6399,11 +6402,11 @@
     </row>
     <row r="35" spans="1:12" ht="22.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="12">
@@ -6433,11 +6436,11 @@
     </row>
     <row r="36" spans="1:12" ht="22.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="12">
@@ -6467,11 +6470,11 @@
     </row>
     <row r="37" spans="1:12" ht="22.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="12">
@@ -6501,7 +6504,7 @@
     </row>
     <row r="38" spans="1:12" ht="22.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
@@ -6537,7 +6540,7 @@
     </row>
     <row r="39" spans="1:12" ht="22.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
@@ -6571,7 +6574,7 @@
     </row>
     <row r="40" spans="1:12" ht="22.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
@@ -6605,7 +6608,7 @@
     </row>
     <row r="41" spans="1:12" ht="22.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
@@ -6639,7 +6642,7 @@
     </row>
     <row r="42" spans="1:12" ht="22.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
@@ -6673,7 +6676,7 @@
     </row>
     <row r="43" spans="1:12" ht="22.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
@@ -6707,7 +6710,7 @@
     </row>
     <row r="44" spans="1:12" ht="22.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
@@ -6741,7 +6744,7 @@
     </row>
     <row r="45" spans="1:12" ht="22.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
@@ -6775,7 +6778,7 @@
     </row>
     <row r="46" spans="1:12" ht="22.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
@@ -6809,7 +6812,7 @@
     </row>
     <row r="47" spans="1:12" ht="22.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
@@ -6843,7 +6846,7 @@
     </row>
     <row r="48" spans="1:12" ht="22.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
@@ -6877,7 +6880,7 @@
     </row>
     <row r="49" spans="1:12" ht="22.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
@@ -6911,7 +6914,7 @@
     </row>
     <row r="50" spans="1:12" ht="22.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
@@ -6947,7 +6950,7 @@
     </row>
     <row r="51" spans="1:12" ht="22.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
@@ -6958,7 +6961,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G51" s="15" t="s">
         <v>6</v>
@@ -6967,7 +6970,7 @@
         <v>6</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J51" s="16">
         <v>0</v>
@@ -6981,7 +6984,7 @@
     </row>
     <row r="52" spans="1:12" ht="22.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
@@ -6992,7 +6995,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G52" s="15" t="s">
         <v>6</v>
@@ -7001,7 +7004,7 @@
         <v>6</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J52" s="16">
         <v>0</v>
@@ -7015,7 +7018,7 @@
     </row>
     <row r="53" spans="1:12" ht="22.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
@@ -7026,7 +7029,7 @@
         <v>200</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>6</v>
@@ -7035,7 +7038,7 @@
         <v>6</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J53" s="16">
         <v>0</v>
@@ -7049,7 +7052,7 @@
     </row>
     <row r="54" spans="1:12" ht="22.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
@@ -7060,7 +7063,7 @@
         <v>300</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>6</v>
@@ -7069,7 +7072,7 @@
         <v>6</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J54" s="16">
         <v>0</v>
@@ -7083,7 +7086,7 @@
     </row>
     <row r="55" spans="1:12" ht="22.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
@@ -7094,7 +7097,7 @@
         <v>500</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>6</v>
@@ -7103,7 +7106,7 @@
         <v>6</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J55" s="16">
         <v>0</v>
@@ -7117,7 +7120,7 @@
     </row>
     <row r="56" spans="1:12" ht="22.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
@@ -7128,7 +7131,7 @@
         <v>1000</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>6</v>
@@ -7137,7 +7140,7 @@
         <v>6</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J56" s="16">
         <v>0</v>
@@ -7151,7 +7154,7 @@
     </row>
     <row r="57" spans="1:12" ht="22.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
@@ -7162,7 +7165,7 @@
         <v>2000</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>6</v>
@@ -7171,7 +7174,7 @@
         <v>6</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J57" s="16">
         <v>0</v>
@@ -7185,7 +7188,7 @@
     </row>
     <row r="58" spans="1:12" ht="22.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
@@ -7196,7 +7199,7 @@
         <v>3000</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>6</v>
@@ -7205,7 +7208,7 @@
         <v>6</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J58" s="16">
         <v>0</v>
@@ -7219,7 +7222,7 @@
     </row>
     <row r="59" spans="1:12" ht="22.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
@@ -7230,7 +7233,7 @@
         <v>5000</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>6</v>
@@ -7239,7 +7242,7 @@
         <v>6</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J59" s="16">
         <v>0</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="60" spans="1:12" ht="22.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
@@ -7264,7 +7267,7 @@
         <v>10000</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>6</v>
@@ -7273,7 +7276,7 @@
         <v>6</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J60" s="16">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="61" spans="1:12" ht="22.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
@@ -7298,7 +7301,7 @@
         <v>20000</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>6</v>
@@ -7307,7 +7310,7 @@
         <v>6</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J61" s="16">
         <v>0</v>
@@ -7321,7 +7324,7 @@
     </row>
     <row r="62" spans="1:12" ht="22.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
@@ -7357,7 +7360,7 @@
     </row>
     <row r="63" spans="1:12" ht="22.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
@@ -7391,7 +7394,7 @@
     </row>
     <row r="64" spans="1:12" ht="22.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
@@ -7425,7 +7428,7 @@
     </row>
     <row r="65" spans="1:12" ht="22.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
@@ -7459,7 +7462,7 @@
     </row>
     <row r="66" spans="1:12" ht="22.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
@@ -7493,7 +7496,7 @@
     </row>
     <row r="67" spans="1:12" ht="22.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
@@ -7527,7 +7530,7 @@
     </row>
     <row r="68" spans="1:12" ht="22.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
@@ -7561,7 +7564,7 @@
     </row>
     <row r="69" spans="1:12" ht="22.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
@@ -7595,7 +7598,7 @@
     </row>
     <row r="70" spans="1:12" ht="22.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
@@ -7629,7 +7632,7 @@
     </row>
     <row r="71" spans="1:12" ht="22.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
@@ -7663,7 +7666,7 @@
     </row>
     <row r="72" spans="1:12" ht="22.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
@@ -7697,7 +7700,7 @@
     </row>
     <row r="73" spans="1:12" ht="22.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
@@ -7739,9 +7742,9 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
@@ -7793,13 +7796,13 @@
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>16</v>
@@ -7828,11 +7831,11 @@
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="12">
@@ -7859,11 +7862,11 @@
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="12">
@@ -7890,11 +7893,11 @@
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="12">
@@ -7921,11 +7924,11 @@
     </row>
     <row r="6" spans="1:11" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="12">
@@ -7952,11 +7955,11 @@
     </row>
     <row r="7" spans="1:11" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="12">
@@ -7983,11 +7986,11 @@
     </row>
     <row r="8" spans="1:11" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="12">
@@ -8014,11 +8017,11 @@
     </row>
     <row r="9" spans="1:11" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="12">
@@ -8045,11 +8048,11 @@
     </row>
     <row r="10" spans="1:11" ht="22.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="12">
@@ -8076,11 +8079,11 @@
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="12">
@@ -8107,11 +8110,11 @@
     </row>
     <row r="12" spans="1:11" ht="22.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12">
@@ -8138,11 +8141,11 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="12">
@@ -8169,11 +8172,11 @@
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>17</v>
@@ -8202,11 +8205,11 @@
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="12">
@@ -8233,11 +8236,11 @@
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="12">
@@ -8264,11 +8267,11 @@
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="12">
@@ -8295,11 +8298,11 @@
     </row>
     <row r="18" spans="1:11" ht="22.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="12">
@@ -8326,11 +8329,11 @@
     </row>
     <row r="19" spans="1:11" ht="22.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="12">
@@ -8357,11 +8360,11 @@
     </row>
     <row r="20" spans="1:11" ht="22.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="12">
@@ -8388,11 +8391,11 @@
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="12">
@@ -8419,11 +8422,11 @@
     </row>
     <row r="22" spans="1:11" ht="22.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="12">
@@ -8450,11 +8453,11 @@
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="12">
@@ -8481,11 +8484,11 @@
     </row>
     <row r="24" spans="1:11" ht="22.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="12">
@@ -8512,11 +8515,11 @@
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="12">
@@ -8543,11 +8546,11 @@
     </row>
     <row r="26" spans="1:11" ht="22.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>20</v>
@@ -8576,11 +8579,11 @@
     </row>
     <row r="27" spans="1:11" ht="22.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="12">
@@ -8607,11 +8610,11 @@
     </row>
     <row r="28" spans="1:11" ht="22.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="12">
@@ -8638,11 +8641,11 @@
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="12">
@@ -8669,11 +8672,11 @@
     </row>
     <row r="30" spans="1:11" ht="22.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="12">
@@ -8700,11 +8703,11 @@
     </row>
     <row r="31" spans="1:11" ht="22.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="12">
@@ -8731,11 +8734,11 @@
     </row>
     <row r="32" spans="1:11" ht="22.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="12">
@@ -8762,11 +8765,11 @@
     </row>
     <row r="33" spans="1:11" ht="22.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="12">
@@ -8793,11 +8796,11 @@
     </row>
     <row r="34" spans="1:11" ht="22.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="12">
@@ -8824,11 +8827,11 @@
     </row>
     <row r="35" spans="1:11" ht="22.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="12">
@@ -8855,11 +8858,11 @@
     </row>
     <row r="36" spans="1:11" ht="22.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="12">
@@ -8886,11 +8889,11 @@
     </row>
     <row r="37" spans="1:11" ht="22.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="12">
@@ -8917,7 +8920,7 @@
     </row>
     <row r="38" spans="1:11" ht="22.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
@@ -8950,7 +8953,7 @@
     </row>
     <row r="39" spans="1:11" ht="22.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
@@ -8981,7 +8984,7 @@
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
@@ -9012,7 +9015,7 @@
     </row>
     <row r="41" spans="1:11" ht="22.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
@@ -9043,7 +9046,7 @@
     </row>
     <row r="42" spans="1:11" ht="22.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
@@ -9074,7 +9077,7 @@
     </row>
     <row r="43" spans="1:11" ht="22.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
@@ -9105,7 +9108,7 @@
     </row>
     <row r="44" spans="1:11" ht="22.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
@@ -9136,7 +9139,7 @@
     </row>
     <row r="45" spans="1:11" ht="22.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
@@ -9167,7 +9170,7 @@
     </row>
     <row r="46" spans="1:11" ht="22.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
@@ -9198,7 +9201,7 @@
     </row>
     <row r="47" spans="1:11" ht="22.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
@@ -9229,7 +9232,7 @@
     </row>
     <row r="48" spans="1:11" ht="22.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
@@ -9260,7 +9263,7 @@
     </row>
     <row r="49" spans="1:11" ht="22.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
@@ -9291,7 +9294,7 @@
     </row>
     <row r="50" spans="1:11" ht="22.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
@@ -9324,7 +9327,7 @@
     </row>
     <row r="51" spans="1:11" ht="22.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
@@ -9355,7 +9358,7 @@
     </row>
     <row r="52" spans="1:11" ht="22.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
@@ -9386,7 +9389,7 @@
     </row>
     <row r="53" spans="1:11" ht="22.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
@@ -9417,7 +9420,7 @@
     </row>
     <row r="54" spans="1:11" ht="22.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
@@ -9448,7 +9451,7 @@
     </row>
     <row r="55" spans="1:11" ht="22.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
@@ -9479,7 +9482,7 @@
     </row>
     <row r="56" spans="1:11" ht="22.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
@@ -9510,7 +9513,7 @@
     </row>
     <row r="57" spans="1:11" ht="22.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
@@ -9541,7 +9544,7 @@
     </row>
     <row r="58" spans="1:11" ht="22.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
@@ -9572,7 +9575,7 @@
     </row>
     <row r="59" spans="1:11" ht="22.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
@@ -9603,7 +9606,7 @@
     </row>
     <row r="60" spans="1:11" ht="22.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
@@ -9634,7 +9637,7 @@
     </row>
     <row r="61" spans="1:11" ht="22.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
@@ -9665,7 +9668,7 @@
     </row>
     <row r="62" spans="1:11" ht="22.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
@@ -9698,7 +9701,7 @@
     </row>
     <row r="63" spans="1:11" ht="22.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
@@ -9729,7 +9732,7 @@
     </row>
     <row r="64" spans="1:11" ht="22.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
@@ -9760,7 +9763,7 @@
     </row>
     <row r="65" spans="1:11" ht="22.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
@@ -9791,7 +9794,7 @@
     </row>
     <row r="66" spans="1:11" ht="22.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
@@ -9822,7 +9825,7 @@
     </row>
     <row r="67" spans="1:11" ht="22.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
@@ -9853,7 +9856,7 @@
     </row>
     <row r="68" spans="1:11" ht="22.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
@@ -9884,7 +9887,7 @@
     </row>
     <row r="69" spans="1:11" ht="22.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
@@ -9915,7 +9918,7 @@
     </row>
     <row r="70" spans="1:11" ht="22.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
@@ -9946,7 +9949,7 @@
     </row>
     <row r="71" spans="1:11" ht="22.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
@@ -9977,7 +9980,7 @@
     </row>
     <row r="72" spans="1:11" ht="22.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
@@ -10008,7 +10011,7 @@
     </row>
     <row r="73" spans="1:11" ht="22.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
@@ -10048,7 +10051,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
@@ -10100,13 +10103,13 @@
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>17</v>
@@ -10135,11 +10138,11 @@
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="12">
@@ -10166,11 +10169,11 @@
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="12">
@@ -10197,11 +10200,11 @@
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="12">
@@ -10228,11 +10231,11 @@
     </row>
     <row r="6" spans="1:11" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="12">
@@ -10259,11 +10262,11 @@
     </row>
     <row r="7" spans="1:11" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="12">
@@ -10290,11 +10293,11 @@
     </row>
     <row r="8" spans="1:11" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="12">
@@ -10321,11 +10324,11 @@
     </row>
     <row r="9" spans="1:11" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="12">
@@ -10352,11 +10355,11 @@
     </row>
     <row r="10" spans="1:11" ht="22.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="12">
@@ -10383,11 +10386,11 @@
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="12">
@@ -10414,11 +10417,11 @@
     </row>
     <row r="12" spans="1:11" ht="22.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12">
@@ -10445,11 +10448,11 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="12">
@@ -10476,11 +10479,11 @@
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>20</v>
@@ -10509,11 +10512,11 @@
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="12">
@@ -10540,11 +10543,11 @@
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="12">
@@ -10571,11 +10574,11 @@
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="12">
@@ -10602,11 +10605,11 @@
     </row>
     <row r="18" spans="1:11" ht="22.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="12">
@@ -10633,11 +10636,11 @@
     </row>
     <row r="19" spans="1:11" ht="22.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="12">
@@ -10664,11 +10667,11 @@
     </row>
     <row r="20" spans="1:11" ht="22.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="12">
@@ -10695,11 +10698,11 @@
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="12">
@@ -10726,11 +10729,11 @@
     </row>
     <row r="22" spans="1:11" ht="22.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="12">
@@ -10757,11 +10760,11 @@
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="12">
@@ -10788,11 +10791,11 @@
     </row>
     <row r="24" spans="1:11" ht="22.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="12">
@@ -10819,11 +10822,11 @@
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="12">
@@ -10850,7 +10853,7 @@
     </row>
     <row r="26" spans="1:11" ht="22.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
@@ -10883,7 +10886,7 @@
     </row>
     <row r="27" spans="1:11" ht="22.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
@@ -10914,7 +10917,7 @@
     </row>
     <row r="28" spans="1:11" ht="22.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
@@ -10945,7 +10948,7 @@
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
@@ -10976,7 +10979,7 @@
     </row>
     <row r="30" spans="1:11" ht="22.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
@@ -11007,7 +11010,7 @@
     </row>
     <row r="31" spans="1:11" ht="22.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
@@ -11038,7 +11041,7 @@
     </row>
     <row r="32" spans="1:11" ht="22.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
@@ -11069,7 +11072,7 @@
     </row>
     <row r="33" spans="1:11" ht="22.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
@@ -11100,7 +11103,7 @@
     </row>
     <row r="34" spans="1:11" ht="22.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
@@ -11131,7 +11134,7 @@
     </row>
     <row r="35" spans="1:11" ht="22.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
@@ -11162,7 +11165,7 @@
     </row>
     <row r="36" spans="1:11" ht="22.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
@@ -11193,7 +11196,7 @@
     </row>
     <row r="37" spans="1:11" ht="22.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
@@ -11235,7 +11238,7 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
@@ -11287,13 +11290,13 @@
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>16</v>
@@ -11322,11 +11325,11 @@
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="12">
@@ -11353,11 +11356,11 @@
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="12">
@@ -11384,11 +11387,11 @@
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="12">
@@ -11415,11 +11418,11 @@
     </row>
     <row r="6" spans="1:11" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="12">
@@ -11446,11 +11449,11 @@
     </row>
     <row r="7" spans="1:11" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="12">
@@ -11477,11 +11480,11 @@
     </row>
     <row r="8" spans="1:11" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="12">
@@ -11508,11 +11511,11 @@
     </row>
     <row r="9" spans="1:11" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="12">
@@ -11539,11 +11542,11 @@
     </row>
     <row r="10" spans="1:11" ht="22.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="12">
@@ -11570,11 +11573,11 @@
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="12">
@@ -11601,11 +11604,11 @@
     </row>
     <row r="12" spans="1:11" ht="22.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12">
@@ -11632,11 +11635,11 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="12">
@@ -11663,11 +11666,11 @@
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>17</v>
@@ -11696,11 +11699,11 @@
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="12">
@@ -11727,11 +11730,11 @@
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="12">
@@ -11758,11 +11761,11 @@
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="12">
@@ -11789,11 +11792,11 @@
     </row>
     <row r="18" spans="1:11" ht="22.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="12">
@@ -11820,11 +11823,11 @@
     </row>
     <row r="19" spans="1:11" ht="22.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="12">
@@ -11851,11 +11854,11 @@
     </row>
     <row r="20" spans="1:11" ht="22.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="12">
@@ -11882,11 +11885,11 @@
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="12">
@@ -11913,11 +11916,11 @@
     </row>
     <row r="22" spans="1:11" ht="22.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="12">
@@ -11944,11 +11947,11 @@
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="12">
@@ -11975,11 +11978,11 @@
     </row>
     <row r="24" spans="1:11" ht="22.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="12">
@@ -12006,11 +12009,11 @@
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="12">
@@ -12037,11 +12040,11 @@
     </row>
     <row r="26" spans="1:11" ht="22.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>20</v>
@@ -12070,11 +12073,11 @@
     </row>
     <row r="27" spans="1:11" ht="22.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="12">
@@ -12101,11 +12104,11 @@
     </row>
     <row r="28" spans="1:11" ht="22.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="12">
@@ -12132,11 +12135,11 @@
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="12">
@@ -12163,11 +12166,11 @@
     </row>
     <row r="30" spans="1:11" ht="22.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="12">
@@ -12194,11 +12197,11 @@
     </row>
     <row r="31" spans="1:11" ht="22.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="12">
@@ -12225,11 +12228,11 @@
     </row>
     <row r="32" spans="1:11" ht="22.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="12">
@@ -12256,11 +12259,11 @@
     </row>
     <row r="33" spans="1:11" ht="22.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="12">
@@ -12287,11 +12290,11 @@
     </row>
     <row r="34" spans="1:11" ht="22.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="12">
@@ -12318,11 +12321,11 @@
     </row>
     <row r="35" spans="1:11" ht="22.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="12">
@@ -12349,11 +12352,11 @@
     </row>
     <row r="36" spans="1:11" ht="22.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="12">
@@ -12380,11 +12383,11 @@
     </row>
     <row r="37" spans="1:11" ht="22.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="12">
@@ -12411,7 +12414,7 @@
     </row>
     <row r="38" spans="1:11" ht="22.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
@@ -12444,7 +12447,7 @@
     </row>
     <row r="39" spans="1:11" ht="22.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
@@ -12475,7 +12478,7 @@
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
@@ -12506,7 +12509,7 @@
     </row>
     <row r="41" spans="1:11" ht="22.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
@@ -12537,7 +12540,7 @@
     </row>
     <row r="42" spans="1:11" ht="22.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
@@ -12568,7 +12571,7 @@
     </row>
     <row r="43" spans="1:11" ht="22.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
@@ -12599,7 +12602,7 @@
     </row>
     <row r="44" spans="1:11" ht="22.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
@@ -12630,7 +12633,7 @@
     </row>
     <row r="45" spans="1:11" ht="22.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
@@ -12661,7 +12664,7 @@
     </row>
     <row r="46" spans="1:11" ht="22.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
@@ -12692,7 +12695,7 @@
     </row>
     <row r="47" spans="1:11" ht="22.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
@@ -12723,7 +12726,7 @@
     </row>
     <row r="48" spans="1:11" ht="22.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
@@ -12754,7 +12757,7 @@
     </row>
     <row r="49" spans="1:11" ht="22.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
@@ -12785,7 +12788,7 @@
     </row>
     <row r="50" spans="1:11" ht="22.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
@@ -12818,7 +12821,7 @@
     </row>
     <row r="51" spans="1:11" ht="22.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
@@ -12849,7 +12852,7 @@
     </row>
     <row r="52" spans="1:11" ht="22.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
@@ -12880,7 +12883,7 @@
     </row>
     <row r="53" spans="1:11" ht="22.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
@@ -12911,7 +12914,7 @@
     </row>
     <row r="54" spans="1:11" ht="22.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
@@ -12942,7 +12945,7 @@
     </row>
     <row r="55" spans="1:11" ht="22.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
@@ -12973,7 +12976,7 @@
     </row>
     <row r="56" spans="1:11" ht="22.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
@@ -13004,7 +13007,7 @@
     </row>
     <row r="57" spans="1:11" ht="22.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
@@ -13035,7 +13038,7 @@
     </row>
     <row r="58" spans="1:11" ht="22.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
@@ -13066,7 +13069,7 @@
     </row>
     <row r="59" spans="1:11" ht="22.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
@@ -13097,7 +13100,7 @@
     </row>
     <row r="60" spans="1:11" ht="22.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
@@ -13128,7 +13131,7 @@
     </row>
     <row r="61" spans="1:11" ht="22.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
@@ -13159,7 +13162,7 @@
     </row>
     <row r="62" spans="1:11" ht="22.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
@@ -13192,7 +13195,7 @@
     </row>
     <row r="63" spans="1:11" ht="22.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
@@ -13223,7 +13226,7 @@
     </row>
     <row r="64" spans="1:11" ht="22.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
@@ -13254,7 +13257,7 @@
     </row>
     <row r="65" spans="1:11" ht="22.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
@@ -13285,7 +13288,7 @@
     </row>
     <row r="66" spans="1:11" ht="22.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
@@ -13316,7 +13319,7 @@
     </row>
     <row r="67" spans="1:11" ht="22.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
@@ -13347,7 +13350,7 @@
     </row>
     <row r="68" spans="1:11" ht="22.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
@@ -13378,7 +13381,7 @@
     </row>
     <row r="69" spans="1:11" ht="22.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
@@ -13409,7 +13412,7 @@
     </row>
     <row r="70" spans="1:11" ht="22.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
@@ -13440,7 +13443,7 @@
     </row>
     <row r="71" spans="1:11" ht="22.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
@@ -13471,7 +13474,7 @@
     </row>
     <row r="72" spans="1:11" ht="22.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
@@ -13502,7 +13505,7 @@
     </row>
     <row r="73" spans="1:11" ht="22.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
@@ -13543,7 +13546,7 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
@@ -13595,13 +13598,13 @@
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>16</v>
@@ -13630,11 +13633,11 @@
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="12">
@@ -13661,11 +13664,11 @@
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="12">
@@ -13692,11 +13695,11 @@
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="12">
@@ -13723,11 +13726,11 @@
     </row>
     <row r="6" spans="1:11" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="12">
@@ -13754,11 +13757,11 @@
     </row>
     <row r="7" spans="1:11" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="12">
@@ -13785,11 +13788,11 @@
     </row>
     <row r="8" spans="1:11" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="12">
@@ -13816,11 +13819,11 @@
     </row>
     <row r="9" spans="1:11" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="12">
@@ -13847,11 +13850,11 @@
     </row>
     <row r="10" spans="1:11" ht="22.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="12">
@@ -13878,11 +13881,11 @@
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="12">
@@ -13909,11 +13912,11 @@
     </row>
     <row r="12" spans="1:11" ht="22.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12">
@@ -13940,11 +13943,11 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="12">
@@ -13971,11 +13974,11 @@
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>17</v>
@@ -14004,11 +14007,11 @@
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="12">
@@ -14035,11 +14038,11 @@
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="12">
@@ -14066,11 +14069,11 @@
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="12">
@@ -14097,11 +14100,11 @@
     </row>
     <row r="18" spans="1:11" ht="22.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="12">
@@ -14128,11 +14131,11 @@
     </row>
     <row r="19" spans="1:11" ht="22.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="12">
@@ -14159,11 +14162,11 @@
     </row>
     <row r="20" spans="1:11" ht="22.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="12">
@@ -14190,11 +14193,11 @@
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="12">
@@ -14221,11 +14224,11 @@
     </row>
     <row r="22" spans="1:11" ht="22.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="12">
@@ -14252,11 +14255,11 @@
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="12">
@@ -14283,11 +14286,11 @@
     </row>
     <row r="24" spans="1:11" ht="22.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="12">
@@ -14314,11 +14317,11 @@
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="12">
@@ -14345,11 +14348,11 @@
     </row>
     <row r="26" spans="1:11" ht="22.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>20</v>
@@ -14378,11 +14381,11 @@
     </row>
     <row r="27" spans="1:11" ht="22.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="12">
@@ -14409,11 +14412,11 @@
     </row>
     <row r="28" spans="1:11" ht="22.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="12">
@@ -14440,11 +14443,11 @@
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="12">
@@ -14471,11 +14474,11 @@
     </row>
     <row r="30" spans="1:11" ht="22.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="12">
@@ -14502,11 +14505,11 @@
     </row>
     <row r="31" spans="1:11" ht="22.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="12">
@@ -14533,11 +14536,11 @@
     </row>
     <row r="32" spans="1:11" ht="22.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="12">
@@ -14564,11 +14567,11 @@
     </row>
     <row r="33" spans="1:11" ht="22.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="12">
@@ -14595,11 +14598,11 @@
     </row>
     <row r="34" spans="1:11" ht="22.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="12">
@@ -14626,11 +14629,11 @@
     </row>
     <row r="35" spans="1:11" ht="22.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="12">
@@ -14657,11 +14660,11 @@
     </row>
     <row r="36" spans="1:11" ht="22.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="12">
@@ -14688,11 +14691,11 @@
     </row>
     <row r="37" spans="1:11" ht="22.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="12">
@@ -14719,7 +14722,7 @@
     </row>
     <row r="38" spans="1:11" ht="22.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
@@ -14752,7 +14755,7 @@
     </row>
     <row r="39" spans="1:11" ht="22.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
@@ -14783,7 +14786,7 @@
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
@@ -14814,7 +14817,7 @@
     </row>
     <row r="41" spans="1:11" ht="22.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
@@ -14845,7 +14848,7 @@
     </row>
     <row r="42" spans="1:11" ht="22.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
@@ -14876,7 +14879,7 @@
     </row>
     <row r="43" spans="1:11" ht="22.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
@@ -14907,7 +14910,7 @@
     </row>
     <row r="44" spans="1:11" ht="22.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
@@ -14938,7 +14941,7 @@
     </row>
     <row r="45" spans="1:11" ht="22.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
@@ -14969,7 +14972,7 @@
     </row>
     <row r="46" spans="1:11" ht="22.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
@@ -15000,7 +15003,7 @@
     </row>
     <row r="47" spans="1:11" ht="22.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
@@ -15031,7 +15034,7 @@
     </row>
     <row r="48" spans="1:11" ht="22.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
@@ -15062,7 +15065,7 @@
     </row>
     <row r="49" spans="1:11" ht="22.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
@@ -15093,7 +15096,7 @@
     </row>
     <row r="50" spans="1:11" ht="22.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
@@ -15126,7 +15129,7 @@
     </row>
     <row r="51" spans="1:11" ht="22.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
@@ -15157,7 +15160,7 @@
     </row>
     <row r="52" spans="1:11" ht="22.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
@@ -15188,7 +15191,7 @@
     </row>
     <row r="53" spans="1:11" ht="22.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
@@ -15219,7 +15222,7 @@
     </row>
     <row r="54" spans="1:11" ht="22.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
@@ -15250,7 +15253,7 @@
     </row>
     <row r="55" spans="1:11" ht="22.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
@@ -15281,7 +15284,7 @@
     </row>
     <row r="56" spans="1:11" ht="22.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
@@ -15312,7 +15315,7 @@
     </row>
     <row r="57" spans="1:11" ht="22.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
@@ -15343,7 +15346,7 @@
     </row>
     <row r="58" spans="1:11" ht="22.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
@@ -15374,7 +15377,7 @@
     </row>
     <row r="59" spans="1:11" ht="22.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
@@ -15405,7 +15408,7 @@
     </row>
     <row r="60" spans="1:11" ht="22.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
@@ -15436,7 +15439,7 @@
     </row>
     <row r="61" spans="1:11" ht="22.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
@@ -15467,7 +15470,7 @@
     </row>
     <row r="62" spans="1:11" ht="22.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
@@ -15500,7 +15503,7 @@
     </row>
     <row r="63" spans="1:11" ht="22.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
@@ -15531,7 +15534,7 @@
     </row>
     <row r="64" spans="1:11" ht="22.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
@@ -15562,7 +15565,7 @@
     </row>
     <row r="65" spans="1:11" ht="22.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
@@ -15593,7 +15596,7 @@
     </row>
     <row r="66" spans="1:11" ht="22.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
@@ -15624,7 +15627,7 @@
     </row>
     <row r="67" spans="1:11" ht="22.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
@@ -15655,7 +15658,7 @@
     </row>
     <row r="68" spans="1:11" ht="22.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
@@ -15686,7 +15689,7 @@
     </row>
     <row r="69" spans="1:11" ht="22.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
@@ -15717,7 +15720,7 @@
     </row>
     <row r="70" spans="1:11" ht="22.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
@@ -15748,7 +15751,7 @@
     </row>
     <row r="71" spans="1:11" ht="22.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
@@ -15779,7 +15782,7 @@
     </row>
     <row r="72" spans="1:11" ht="22.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
@@ -15810,7 +15813,7 @@
     </row>
     <row r="73" spans="1:11" ht="22.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
@@ -15848,10 +15851,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
@@ -15903,13 +15906,13 @@
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>16</v>
@@ -15938,11 +15941,11 @@
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="12">
@@ -15969,11 +15972,11 @@
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="12">
@@ -16000,11 +16003,11 @@
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="12">
@@ -16031,11 +16034,11 @@
     </row>
     <row r="6" spans="1:11" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="12">
@@ -16062,11 +16065,11 @@
     </row>
     <row r="7" spans="1:11" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="12">
@@ -16093,11 +16096,11 @@
     </row>
     <row r="8" spans="1:11" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="12">
@@ -16124,11 +16127,11 @@
     </row>
     <row r="9" spans="1:11" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="12">
@@ -16155,11 +16158,11 @@
     </row>
     <row r="10" spans="1:11" ht="22.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="12">
@@ -16186,11 +16189,11 @@
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="12">
@@ -16217,11 +16220,11 @@
     </row>
     <row r="12" spans="1:11" ht="22.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12">
@@ -16248,11 +16251,11 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="12">
@@ -16279,11 +16282,11 @@
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>17</v>
@@ -16312,11 +16315,11 @@
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="12">
@@ -16343,11 +16346,11 @@
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="12">
@@ -16374,11 +16377,11 @@
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="12">
@@ -16405,11 +16408,11 @@
     </row>
     <row r="18" spans="1:11" ht="22.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="12">
@@ -16436,11 +16439,11 @@
     </row>
     <row r="19" spans="1:11" ht="22.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="12">
@@ -16467,11 +16470,11 @@
     </row>
     <row r="20" spans="1:11" ht="22.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="12">
@@ -16498,11 +16501,11 @@
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="12">
@@ -16529,11 +16532,11 @@
     </row>
     <row r="22" spans="1:11" ht="22.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="12">
@@ -16560,11 +16563,11 @@
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="12">
@@ -16591,11 +16594,11 @@
     </row>
     <row r="24" spans="1:11" ht="22.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="12">
@@ -16622,11 +16625,11 @@
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="12">
@@ -16653,11 +16656,11 @@
     </row>
     <row r="26" spans="1:11" ht="22.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>20</v>
@@ -16686,11 +16689,11 @@
     </row>
     <row r="27" spans="1:11" ht="22.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="12">
@@ -16717,11 +16720,11 @@
     </row>
     <row r="28" spans="1:11" ht="22.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="12">
@@ -16748,11 +16751,11 @@
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="12">
@@ -16779,11 +16782,11 @@
     </row>
     <row r="30" spans="1:11" ht="22.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="12">
@@ -16810,11 +16813,11 @@
     </row>
     <row r="31" spans="1:11" ht="22.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="12">
@@ -16841,11 +16844,11 @@
     </row>
     <row r="32" spans="1:11" ht="22.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="12">
@@ -16872,11 +16875,11 @@
     </row>
     <row r="33" spans="1:11" ht="22.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="12">
@@ -16903,11 +16906,11 @@
     </row>
     <row r="34" spans="1:11" ht="22.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="12">
@@ -16934,11 +16937,11 @@
     </row>
     <row r="35" spans="1:11" ht="22.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="12">
@@ -16965,11 +16968,11 @@
     </row>
     <row r="36" spans="1:11" ht="22.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="12">
@@ -16996,11 +16999,11 @@
     </row>
     <row r="37" spans="1:11" ht="22.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="12">
@@ -17027,7 +17030,7 @@
     </row>
     <row r="38" spans="1:11" ht="22.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
@@ -17060,7 +17063,7 @@
     </row>
     <row r="39" spans="1:11" ht="22.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
@@ -17091,7 +17094,7 @@
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
@@ -17122,7 +17125,7 @@
     </row>
     <row r="41" spans="1:11" ht="22.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
@@ -17153,7 +17156,7 @@
     </row>
     <row r="42" spans="1:11" ht="22.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
@@ -17184,7 +17187,7 @@
     </row>
     <row r="43" spans="1:11" ht="22.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
@@ -17215,7 +17218,7 @@
     </row>
     <row r="44" spans="1:11" ht="22.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
@@ -17246,7 +17249,7 @@
     </row>
     <row r="45" spans="1:11" ht="22.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
@@ -17277,7 +17280,7 @@
     </row>
     <row r="46" spans="1:11" ht="22.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
@@ -17308,7 +17311,7 @@
     </row>
     <row r="47" spans="1:11" ht="22.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
@@ -17339,7 +17342,7 @@
     </row>
     <row r="48" spans="1:11" ht="22.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
@@ -17370,7 +17373,7 @@
     </row>
     <row r="49" spans="1:11" ht="22.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
@@ -17401,7 +17404,7 @@
     </row>
     <row r="50" spans="1:11" ht="22.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
@@ -17434,7 +17437,7 @@
     </row>
     <row r="51" spans="1:11" ht="22.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
@@ -17465,7 +17468,7 @@
     </row>
     <row r="52" spans="1:11" ht="22.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
@@ -17496,7 +17499,7 @@
     </row>
     <row r="53" spans="1:11" ht="22.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
@@ -17527,7 +17530,7 @@
     </row>
     <row r="54" spans="1:11" ht="22.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
@@ -17558,7 +17561,7 @@
     </row>
     <row r="55" spans="1:11" ht="22.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
@@ -17589,7 +17592,7 @@
     </row>
     <row r="56" spans="1:11" ht="22.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
@@ -17620,7 +17623,7 @@
     </row>
     <row r="57" spans="1:11" ht="22.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
@@ -17651,7 +17654,7 @@
     </row>
     <row r="58" spans="1:11" ht="22.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
@@ -17682,7 +17685,7 @@
     </row>
     <row r="59" spans="1:11" ht="22.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
@@ -17713,7 +17716,7 @@
     </row>
     <row r="60" spans="1:11" ht="22.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
@@ -17744,7 +17747,7 @@
     </row>
     <row r="61" spans="1:11" ht="22.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
@@ -17775,7 +17778,7 @@
     </row>
     <row r="62" spans="1:11" ht="22.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
@@ -17808,7 +17811,7 @@
     </row>
     <row r="63" spans="1:11" ht="22.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
@@ -17839,7 +17842,7 @@
     </row>
     <row r="64" spans="1:11" ht="22.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
@@ -17870,7 +17873,7 @@
     </row>
     <row r="65" spans="1:11" ht="22.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
@@ -17901,7 +17904,7 @@
     </row>
     <row r="66" spans="1:11" ht="22.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
@@ -17932,7 +17935,7 @@
     </row>
     <row r="67" spans="1:11" ht="22.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
@@ -17963,7 +17966,7 @@
     </row>
     <row r="68" spans="1:11" ht="22.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
@@ -17994,7 +17997,7 @@
     </row>
     <row r="69" spans="1:11" ht="22.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
@@ -18025,7 +18028,7 @@
     </row>
     <row r="70" spans="1:11" ht="22.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
@@ -18056,7 +18059,7 @@
     </row>
     <row r="71" spans="1:11" ht="22.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
@@ -18087,7 +18090,7 @@
     </row>
     <row r="72" spans="1:11" ht="22.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
@@ -18118,7 +18121,7 @@
     </row>
     <row r="73" spans="1:11" ht="22.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
